--- a/Functions & Notes.xlsx
+++ b/Functions & Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45CB9B5-7847-4C38-AC19-BEC02A09CDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF8CBDC-404E-456B-A74B-AE0D5CC296AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
   <si>
     <t>Function</t>
   </si>
@@ -131,12 +131,18 @@
   <si>
     <t>replace(str.begin(), str.end(), '0', 'O');</t>
   </si>
+  <si>
+    <t>(count(v.begin(), v.end(), v[i]) == 1)</t>
+  </si>
+  <si>
+    <t>count(begin(v),end(v),i)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +284,31 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -315,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -361,6 +392,19 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -642,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,6 +930,28 @@
         <v>9</v>
       </c>
     </row>
+    <row r="22" spans="1:3" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Functions & Notes.xlsx
+++ b/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF8CBDC-404E-456B-A74B-AE0D5CC296AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60C8DDE-56DF-489C-A612-B2D67748B03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
   <si>
     <t>Function</t>
   </si>
@@ -137,12 +137,15 @@
   <si>
     <t>count(begin(v),end(v),i)</t>
   </si>
+  <si>
+    <t>a.empty()</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +312,16 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -346,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -405,6 +418,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,6 +968,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Functions & Notes.xlsx
+++ b/Functions & Notes.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60C8DDE-56DF-489C-A612-B2D67748B03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117F7BCF-CC1C-4A3F-99C6-E83B7DCBE694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Builtin Functions" sheetId="1" r:id="rId1"/>
+    <sheet name="Notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
-  <si>
-    <t>Function</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>Language</t>
   </si>
@@ -51,13 +49,7 @@
     <t>names[(nb_petals - 1) % 6];  =&gt; loop from begin</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Builtin Function</t>
-  </si>
-  <si>
-    <t>Note</t>
   </si>
   <si>
     <t>for (int i = 0; i &lt; arr.size() - 1; i++) =&gt; to check all expect last one</t>
@@ -140,12 +132,39 @@
   <si>
     <t>a.empty()</t>
   </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Cut</t>
+  </si>
+  <si>
+    <t>String To Input</t>
+  </si>
+  <si>
+    <t>Convert to string</t>
+  </si>
+  <si>
+    <t>Get The Max</t>
+  </si>
+  <si>
+    <t>Replace</t>
+  </si>
+  <si>
+    <t>Reverse</t>
+  </si>
+  <si>
+    <t>Check If Empty</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,15 +260,6 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -326,8 +336,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,6 +372,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -359,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -391,10 +423,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -406,20 +438,24 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -702,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,271 +752,274 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>8</v>
+      <c r="C1" s="21" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="B5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>17</v>
+      <c r="A6" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
+      <c r="A9" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>23</v>
+      <c r="A10" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
+      <c r="B13" s="10"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="18" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="22" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFB4B82-9314-4563-94EB-BBE9C1A70348}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="96.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Functions & Notes.xlsx
+++ b/Functions & Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117F7BCF-CC1C-4A3F-99C6-E83B7DCBE694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3210F69-4F9F-444A-98F6-9E9041B6896F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Builtin Functions" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>Language</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>Check If Empty</t>
+  </si>
+  <si>
+    <t>isdigit('4')</t>
+  </si>
+  <si>
+    <t>Check if input is number or another thing</t>
   </si>
 </sst>
 </file>
@@ -741,14 +747,14 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="91" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -867,8 +873,15 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>

--- a/Functions & Notes.xlsx
+++ b/Functions & Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3210F69-4F9F-444A-98F6-9E9041B6896F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4230795A-863A-454C-BEC0-3319A89A208B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>Language</t>
   </si>
@@ -124,9 +124,6 @@
     <t>replace(str.begin(), str.end(), '0', 'O');</t>
   </si>
   <si>
-    <t>(count(v.begin(), v.end(), v[i]) == 1)</t>
-  </si>
-  <si>
     <t>count(begin(v),end(v),i)</t>
   </si>
   <si>
@@ -164,6 +161,18 @@
   </si>
   <si>
     <t>Check if input is number or another thing</t>
+  </si>
+  <si>
+    <t>unordered_map&lt;int, int&gt; map;</t>
+  </si>
+  <si>
+    <t>Map In C++</t>
+  </si>
+  <si>
+    <t>(count(v.begin(), v.end(), v[i]) % 2 == 0)</t>
+  </si>
+  <si>
+    <t>Count The Numbers</t>
   </si>
 </sst>
 </file>
@@ -333,16 +342,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -354,6 +353,15 @@
       <i/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="7"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -454,14 +462,14 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -747,7 +755,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,8 +772,8 @@
       <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>27</v>
+      <c r="C1" s="20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -775,8 +783,8 @@
       <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>28</v>
+      <c r="C2" s="22" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -786,8 +794,8 @@
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>29</v>
+      <c r="C3" s="22" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -797,8 +805,8 @@
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>30</v>
+      <c r="C4" s="22" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -808,8 +816,8 @@
       <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>31</v>
+      <c r="C5" s="22" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -819,46 +827,50 @@
       <c r="B6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="21"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>32</v>
+      <c r="B7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="22"/>
+        <v>38</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="22" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>34</v>
+      <c r="C10" s="22" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -868,24 +880,31 @@
       <c r="B11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>33</v>
+      <c r="C11" s="22" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="18" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" s="5"/>
@@ -922,7 +941,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>0</v>

--- a/Functions & Notes.xlsx
+++ b/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4230795A-863A-454C-BEC0-3319A89A208B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EA531F-2D80-41B5-AB79-5A25FE707A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>Language</t>
   </si>
@@ -174,12 +174,24 @@
   <si>
     <t>Count The Numbers</t>
   </si>
+  <si>
+    <t>sort(v.begin(), v.end());</t>
+  </si>
+  <si>
+    <t>Sorting In C++</t>
+  </si>
+  <si>
+    <t>count(begin(v),end(v), i == 1)</t>
+  </si>
+  <si>
+    <t>Does This Number Happened One Time?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,6 +374,15 @@
       <i/>
       <sz val="11"/>
       <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -388,7 +409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -465,11 +486,14 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -752,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,7 +851,7 @@
       <c r="B6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
@@ -853,71 +877,93 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="22" t="s">
+      <c r="B10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="22" t="s">
+      <c r="B11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="22" t="s">
+      <c r="B12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="5"/>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-    </row>
-    <row r="22" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+    </row>
+    <row r="23" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Functions & Notes.xlsx
+++ b/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EA531F-2D80-41B5-AB79-5A25FE707A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3249B9-EFE8-4D23-BD79-895B7F428BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -779,7 +779,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Functions & Notes.xlsx
+++ b/Functions & Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3249B9-EFE8-4D23-BD79-895B7F428BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435438F8-D65B-4CAD-8E6D-19BF98B912BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,7 +388,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +413,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -426,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -496,6 +502,7 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -779,7 +786,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,6 +958,11 @@
       <c r="C15" s="24" t="s">
         <v>41</v>
       </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C19" s="5"/>

--- a/Functions & Notes.xlsx
+++ b/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435438F8-D65B-4CAD-8E6D-19BF98B912BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D923960-FCEF-4CED-8F5C-F969C2146895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
   <si>
     <t>Language</t>
   </si>
@@ -186,12 +186,45 @@
   <si>
     <t>Does This Number Happened One Time?</t>
   </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>Return The Value Of Function At The End</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "=="</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "==="</t>
+  </si>
+  <si>
+    <t>Compares Value Only</t>
+  </si>
+  <si>
+    <t>Compares Value And Type</t>
+  </si>
+  <si>
+    <t>name.length</t>
+  </si>
+  <si>
+    <t>Return Length Of Given Item</t>
+  </si>
+  <si>
+    <t>arr.sort()</t>
+  </si>
+  <si>
+    <t>sort items</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +416,53 @@
       <i/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -432,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -477,12 +557,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -502,7 +576,28 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,7 +898,7 @@
       <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>26</v>
       </c>
     </row>
@@ -811,10 +906,10 @@
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -822,10 +917,10 @@
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -833,10 +928,10 @@
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="22" t="s">
+      <c r="B4" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -844,10 +939,10 @@
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="22" t="s">
+      <c r="B5" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -855,63 +950,63 @@
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="23"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>33</v>
       </c>
     </row>
@@ -919,10 +1014,10 @@
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="22" t="s">
+      <c r="B12" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>32</v>
       </c>
     </row>
@@ -930,21 +1025,21 @@
       <c r="A13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="24" t="s">
+      <c r="B13" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="24" t="s">
+      <c r="B14" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -952,33 +1047,77 @@
       <c r="A15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="24" t="s">
+      <c r="B15" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-    </row>
-    <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-    </row>
-    <row r="23" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Functions & Notes.xlsx
+++ b/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D923960-FCEF-4CED-8F5C-F969C2146895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEFBA99-2DCC-45A0-940E-81F03DBAEAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>Language</t>
   </si>
@@ -219,12 +219,18 @@
   <si>
     <t>sort items</t>
   </si>
+  <si>
+    <t>ParseInt(value)</t>
+  </si>
+  <si>
+    <t>Convert String To Integer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,8 +467,29 @@
     <font>
       <b/>
       <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
       <sz val="11"/>
       <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -512,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -592,10 +619,13 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -880,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,6 +1142,17 @@
       </c>
       <c r="C21" s="23" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/Functions & Notes.xlsx
+++ b/Functions & Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEFBA99-2DCC-45A0-940E-81F03DBAEAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910A2260-DF84-4C48-94ED-062EEC474834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
   <si>
     <t>Language</t>
   </si>
@@ -225,12 +225,54 @@
   <si>
     <t>Convert String To Integer</t>
   </si>
+  <si>
+    <t>Math.sqrt(sqr)</t>
+  </si>
+  <si>
+    <t>Root Of Number</t>
+  </si>
+  <si>
+    <t>Math.pow(number, exponent)</t>
+  </si>
+  <si>
+    <t>Power Of Number</t>
+  </si>
+  <si>
+    <t>Number % 2 === 0</t>
+  </si>
+  <si>
+    <t>Remain Of Division</t>
+  </si>
+  <si>
+    <t>number.toUpperCase()</t>
+  </si>
+  <si>
+    <t>Make Chararcters Uppercase</t>
+  </si>
+  <si>
+    <t>Make Chararcters Lowercase</t>
+  </si>
+  <si>
+    <t>number.toLowerCase()</t>
+  </si>
+  <si>
+    <t>(i.toString())</t>
+  </si>
+  <si>
+    <t>Convert Number To String</t>
+  </si>
+  <si>
+    <t>return Math.cbrt(num);</t>
+  </si>
+  <si>
+    <t>Cbrt Of Number</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,6 +535,57 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.89999084444715716"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -539,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -627,6 +720,24 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -908,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,7 +1266,83 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:3" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Functions & Notes.xlsx
+++ b/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910A2260-DF84-4C48-94ED-062EEC474834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA2A15C-722D-47D7-BF12-759C3A648788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="77">
   <si>
     <t>Language</t>
   </si>
@@ -262,10 +262,28 @@
     <t>Convert Number To String</t>
   </si>
   <si>
-    <t>return Math.cbrt(num);</t>
-  </si>
-  <si>
     <t>Cbrt Of Number</t>
+  </si>
+  <si>
+    <t>return name1.concat(`${name2}`);</t>
+  </si>
+  <si>
+    <t>Add String + String</t>
+  </si>
+  <si>
+    <t>Math.cbrt(num);</t>
+  </si>
+  <si>
+    <t>return arr[arr.length - 1];</t>
+  </si>
+  <si>
+    <t>Get The Last Element In Array</t>
+  </si>
+  <si>
+    <t>let sorted = splited.sort((a, b) =&gt; a.length - b.length)</t>
+  </si>
+  <si>
+    <t>Sort By Length</t>
   </si>
 </sst>
 </file>
@@ -540,52 +558,55 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.89999084444715716"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <i/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="2" tint="-0.89999084444715716"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="7" tint="-0.499984740745262"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -632,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -722,19 +743,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1019,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,7 +1294,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="37" t="s">
         <v>57</v>
       </c>
       <c r="B23" s="25" t="s">
@@ -1278,7 +1305,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="38" t="s">
         <v>59</v>
       </c>
       <c r="B24" s="25" t="s">
@@ -1289,7 +1316,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="32" t="s">
         <v>61</v>
       </c>
       <c r="B25" s="25" t="s">
@@ -1300,7 +1327,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="33" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -1311,7 +1338,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="33" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="25" t="s">
@@ -1322,7 +1349,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="34" t="s">
         <v>67</v>
       </c>
       <c r="B28" s="25" t="s">
@@ -1333,14 +1360,47 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
-        <v>69</v>
+      <c r="A29" s="35" t="s">
+        <v>72</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
         <v>70</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Functions & Notes.xlsx
+++ b/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA2A15C-722D-47D7-BF12-759C3A648788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E501198F-CF1A-44DA-9384-AE5FF0B64B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="83">
   <si>
     <t>Language</t>
   </si>
@@ -256,9 +256,6 @@
     <t>number.toLowerCase()</t>
   </si>
   <si>
-    <t>(i.toString())</t>
-  </si>
-  <si>
     <t>Convert Number To String</t>
   </si>
   <si>
@@ -284,13 +281,35 @@
   </si>
   <si>
     <t>Sort By Length</t>
+  </si>
+  <si>
+    <t>Calculate Average</t>
+  </si>
+  <si>
+    <t>Sum Of Array / length Of Array</t>
+  </si>
+  <si>
+    <t>let sorted = elements_array.sort((a, b) =&gt; a - b);</t>
+  </si>
+  <si>
+    <t>Sort From Small To Big</t>
+  </si>
+  <si>
+    <t>word.toString()</t>
+  </si>
+  <si>
+    <t>let min = Math.min(...numbers);
+ let max = Math.max(...numbers);</t>
+  </si>
+  <si>
+    <t>Use This To Fix Pipe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -604,6 +623,31 @@
       <i/>
       <sz val="11"/>
       <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF6FCA56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -653,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -764,6 +808,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -772,6 +831,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF6FCA56"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1046,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,57 +1414,90 @@
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="23" t="s">
         <v>67</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="23" t="s">
         <v>70</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>73</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="23" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="40" t="s">
         <v>76</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Functions & Notes.xlsx
+++ b/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E501198F-CF1A-44DA-9384-AE5FF0B64B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA89474-986C-4EF5-8A81-F525E11E6BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="85">
   <si>
     <t>Language</t>
   </si>
@@ -304,6 +304,12 @@
   <si>
     <t>Use This To Fix Pipe</t>
   </si>
+  <si>
+    <t>(splited[i].charAt(0).toUpperCase() + splited[i].slice(1));</t>
+  </si>
+  <si>
+    <t>Make Each Letter Of Word Capital</t>
+  </si>
 </sst>
 </file>
 
@@ -646,6 +652,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="5" tint="-0.499984740745262"/>
       <name val="Calibri"/>
@@ -819,11 +827,11 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1110,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,14 +1498,25 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="44" t="s">
         <v>81</v>
       </c>
       <c r="B35" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="43" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Functions & Notes.xlsx
+++ b/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA89474-986C-4EF5-8A81-F525E11E6BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641BE866-CB52-4982-B1BF-DDD42164F771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1120,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Functions & Notes.xlsx
+++ b/Functions & Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641BE866-CB52-4982-B1BF-DDD42164F771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3DEC64-CF0C-42C1-923A-6E55242F3891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="87">
   <si>
     <t>Language</t>
   </si>
@@ -310,6 +310,48 @@
   <si>
     <t>Make Each Letter Of Word Capital</t>
   </si>
+  <si>
+    <t>Convert To Binary Number (0 &amp; 1)</t>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> binaryConverted = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.toString(2);</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -646,16 +688,15 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <color rgb="FF6FCA56"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
       <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -705,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -821,17 +862,20 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1118,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,7 +1531,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="45" t="s">
         <v>78</v>
       </c>
       <c r="B34" s="25" t="s">
@@ -1498,13 +1542,13 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="43" t="s">
+      <c r="B35" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="42" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1517,6 +1561,17 @@
       </c>
       <c r="C36" s="23" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Functions & Notes.xlsx
+++ b/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3DEC64-CF0C-42C1-923A-6E55242F3891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C031D9BB-5257-415D-95A7-FB853C887870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="89">
   <si>
     <t>Language</t>
   </si>
@@ -351,6 +351,12 @@
       </rPr>
       <t>.toString(2);</t>
     </r>
+  </si>
+  <si>
+    <t>if (smallChar.indexOf(smallChar[i]) === smallChar.lastIndexOf(smallChar[i]))</t>
+  </si>
+  <si>
+    <t>Check If Character Appered More Than Once</t>
   </si>
 </sst>
 </file>
@@ -1162,17 +1168,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="91" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1572,6 +1578,17 @@
       </c>
       <c r="C37" s="23" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Functions & Notes.xlsx
+++ b/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C031D9BB-5257-415D-95A7-FB853C887870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B83491E-B7E0-44E3-9CFE-D0DD4A5277E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="93">
   <si>
     <t>Language</t>
   </si>
@@ -358,12 +358,24 @@
   <si>
     <t>Check If Character Appered More Than Once</t>
   </si>
+  <si>
+    <t>return !isNaN(value) &amp;&amp; value.trim() !== '';</t>
+  </si>
+  <si>
+    <t>Check If String Value Is Number Or Text</t>
+  </si>
+  <si>
+    <t>let numberDigits = Math.abs(number).toString().length;</t>
+  </si>
+  <si>
+    <t>convert number to string and ignore (-)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -703,6 +715,24 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -752,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -881,6 +911,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1168,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,6 +1625,28 @@
       </c>
       <c r="C38" s="23" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Functions & Notes.xlsx
+++ b/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B83491E-B7E0-44E3-9CFE-D0DD4A5277E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58290851-0ECC-4D0E-B6C9-B9BE04DF1208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="97">
   <si>
     <t>Language</t>
   </si>
@@ -369,6 +369,18 @@
   </si>
   <si>
     <t>convert number to string and ignore (-)</t>
+  </si>
+  <si>
+    <t>stringWord.length - 1</t>
+  </si>
+  <si>
+    <t>length of word - 1</t>
+  </si>
+  <si>
+    <t>stringWord[stringWord.length - 1]</t>
+  </si>
+  <si>
+    <t>Get The Index Of Last Char In StringWord</t>
   </si>
 </sst>
 </file>
@@ -782,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -918,6 +930,9 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1204,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,6 +1662,28 @@
       </c>
       <c r="C40" s="23" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Functions & Notes.xlsx
+++ b/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58290851-0ECC-4D0E-B6C9-B9BE04DF1208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE266C60-8AB9-4A60-A673-24B00F347085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="105">
   <si>
     <t>Language</t>
   </si>
@@ -382,12 +382,36 @@
   <si>
     <t>Get The Index Of Last Char In StringWord</t>
   </si>
+  <si>
+    <t>let asciiValue = c.charCodeAt(0);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get (Number) The Ascii Value </t>
+  </si>
+  <si>
+    <t>  let char = String.fromCharCode(c);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get (Charcater) The Ascii Value </t>
+  </si>
+  <si>
+    <t>  return 2 * (n - 1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get The Nth Number </t>
+  </si>
+  <si>
+    <t>  const xorResult = a ^ b;</t>
+  </si>
+  <si>
+    <t>XOR Gate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -744,7 +768,34 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -794,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -928,11 +979,20 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1219,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,7 +1714,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="44" t="s">
         <v>91</v>
       </c>
       <c r="B40" s="25" t="s">
@@ -1665,7 +1725,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="47" t="s">
         <v>93</v>
       </c>
       <c r="B41" s="25" t="s">
@@ -1676,7 +1736,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="50" t="s">
         <v>95</v>
       </c>
       <c r="B42" s="25" t="s">
@@ -1684,6 +1744,50 @@
       </c>
       <c r="C42" s="23" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Functions & Notes.xlsx
+++ b/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE266C60-8AB9-4A60-A673-24B00F347085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4409B756-BC73-4224-AE1A-EAFD00083464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="107">
   <si>
     <t>Language</t>
   </si>
@@ -406,12 +406,18 @@
   <si>
     <t>XOR Gate</t>
   </si>
+  <si>
+    <t>\\n</t>
+  </si>
+  <si>
+    <t>Skip New Line</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -796,6 +802,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -842,10 +856,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -994,8 +1009,12 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1279,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1790,9 +1809,23 @@
         <v>104</v>
       </c>
     </row>
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A47" r:id="rId1" xr:uid="{66473E8D-1B83-4B31-BA7E-3700DC3E824B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Functions & Notes.xlsx
+++ b/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4409B756-BC73-4224-AE1A-EAFD00083464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421C7290-0FA0-4FFD-B291-B7433C2AC030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1301,7 +1301,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Functions & Notes.xlsx
+++ b/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421C7290-0FA0-4FFD-B291-B7433C2AC030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5A78A4-00A7-4038-AC94-0B67F6602AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="111">
   <si>
     <t>Language</t>
   </si>
@@ -411,6 +411,18 @@
   </si>
   <si>
     <t>Skip New Line</t>
+  </si>
+  <si>
+    <t>arr.reverse()</t>
+  </si>
+  <si>
+    <t>Reverse The Array</t>
+  </si>
+  <si>
+    <t>let sorted = elements_array.sort((a, b) =&gt; b - a);</t>
+  </si>
+  <si>
+    <t>Sort From Big To Small</t>
   </si>
 </sst>
 </file>
@@ -1298,10 +1310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,152 +1689,174 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="42" t="s">
+      <c r="B36" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="42" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="23" t="s">
+      <c r="B37" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="23" t="s">
+      <c r="B38" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="23" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="23" t="s">
+      <c r="B39" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="46" t="s">
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="23" t="s">
+      <c r="B40" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="23" t="s">
+      <c r="B41" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="47" t="s">
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="23" t="s">
+      <c r="B42" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="50" t="s">
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="23" t="s">
+      <c r="B43" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="48" t="s">
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="23" t="s">
+      <c r="B44" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="23" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="49" t="s">
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="23" t="s">
+      <c r="B45" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="23" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="51" t="s">
+    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="23" t="s">
+      <c r="B46" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="23" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="37" t="s">
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="23" t="s">
+      <c r="B47" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="52" t="s">
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="23" t="s">
+      <c r="B48" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="23" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A47" r:id="rId1" xr:uid="{66473E8D-1B83-4B31-BA7E-3700DC3E824B}"/>
+    <hyperlink ref="A48" r:id="rId1" xr:uid="{66473E8D-1B83-4B31-BA7E-3700DC3E824B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Functions & Notes.xlsx
+++ b/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5A78A4-00A7-4038-AC94-0B67F6602AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D5BD8A-2A7B-4307-9454-C37F50B58096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="113">
   <si>
     <t>Language</t>
   </si>
@@ -423,6 +423,12 @@
   </si>
   <si>
     <t>Sort From Big To Small</t>
+  </si>
+  <si>
+    <t>Get The Heighst Number</t>
+  </si>
+  <si>
+    <t> Math.max(2, 6, 9, 22, 1)</t>
   </si>
 </sst>
 </file>
@@ -1310,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1852,6 +1858,17 @@
       </c>
       <c r="C49" s="23" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Functions & Notes.xlsx
+++ b/Functions & Notes.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D5BD8A-2A7B-4307-9454-C37F50B58096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC164495-5503-49B2-A858-5D0D455869CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Builtin Functions" sheetId="1" r:id="rId1"/>
-    <sheet name="Notes" sheetId="2" r:id="rId2"/>
+    <sheet name="Functions &amp; Notes" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="103">
   <si>
     <t>Language</t>
   </si>
@@ -46,78 +45,12 @@
     <t>numbers.erase(numbers.begin() + i)</t>
   </si>
   <si>
-    <t>names[(nb_petals - 1) % 6];  =&gt; loop from begin</t>
-  </si>
-  <si>
     <t>Builtin Function</t>
   </si>
   <si>
-    <t>for (int i = 0; i &lt; arr.size() - 1; i++) =&gt; to check all expect last one</t>
-  </si>
-  <si>
-    <t>Plindrome Numbers That can be read from end to begin or reverse like (121, 131)</t>
-  </si>
-  <si>
-    <t>ceil worked only with double and float</t>
-  </si>
-  <si>
-    <t>if number can be divide on other number mean that (n % 5 == 0) that mean can be divided</t>
-  </si>
-  <si>
-    <t>if (number % 2 == 0) it is even otherwise odd</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">to use </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ceil</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> function must include &lt;cmath&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>if I want to include number in loop to iterate to it must use &gt;= || use &lt;=</t>
-  </si>
-  <si>
-    <t>num(i + 1) =&gt;index || i + 1 =&gt; sum</t>
-  </si>
-  <si>
-    <t>return i + 1 =&gt; convert from zero based index to one</t>
-  </si>
-  <si>
-    <t>Plaindrome Read from left and read from right =&gt; same result</t>
-  </si>
-  <si>
-    <t>Its Better to say (a == b &amp;&amp; a == c)</t>
-  </si>
-  <si>
     <t>reverse(arr.begin(), arr.end());</t>
   </si>
   <si>
-    <t>isdigit(l[i]) check if number</t>
-  </si>
-  <si>
     <t>name.substr(0, 4)</t>
   </si>
   <si>
@@ -128,9 +61,6 @@
   </si>
   <si>
     <t>a.empty()</t>
-  </si>
-  <si>
-    <t>Notes</t>
   </si>
   <si>
     <t>Description</t>
@@ -430,24 +360,27 @@
   <si>
     <t> Math.max(2, 6, 9, 22, 1)</t>
   </si>
+  <si>
+    <t>Sort From Small To Big In String</t>
+  </si>
+  <si>
+    <t>  let sorted = splited.sort((a, b) =&gt; a.length - b.length);</t>
+  </si>
+  <si>
+    <t>const formattedName = name.charAt(0).toUpperCase() + name.slice(1).toLowerCase();</t>
+  </si>
+  <si>
+    <t>Make First Char Only Is Upper</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -465,25 +398,6 @@
       <b/>
       <i/>
       <sz val="12"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
       <color theme="4" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -519,46 +433,9 @@
     <font>
       <b/>
       <i/>
-      <sz val="12"/>
-      <color theme="5" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <u/>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color theme="3" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -833,18 +710,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -876,9 +747,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -886,13 +757,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -901,133 +775,109 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1316,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,684 +1180,574 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="B12" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="B15" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C15" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="20" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="21"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="B17" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="20" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="B21" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="20" t="s">
+    </row>
+    <row r="23" spans="1:3" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="B23" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="25" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="B24" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="23" t="s">
+      <c r="B25" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="23" t="s">
+      <c r="B26" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="23" t="s">
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="23" t="s">
+      <c r="B30" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="23" t="s">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="32" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="B31" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="23" t="s">
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
+      <c r="B32" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="23" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
+      <c r="B33" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="23" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="23" t="s">
+      <c r="B34" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
+    </row>
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="42" t="s">
+      <c r="B45" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
+    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="23" t="s">
+      <c r="B46" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="44" t="s">
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="37" t="s">
+    </row>
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="23" t="s">
+      <c r="B48" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="46" t="s">
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="23" t="s">
+      <c r="B49" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="44" t="s">
+    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="23" t="s">
+      <c r="B50" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="47" t="s">
+    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="23" t="s">
+      <c r="B51" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="48" t="s">
+    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="16" t="s">
         <v>97</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A48" r:id="rId1" xr:uid="{66473E8D-1B83-4B31-BA7E-3700DC3E824B}"/>
+    <hyperlink ref="A50" r:id="rId1" xr:uid="{66473E8D-1B83-4B31-BA7E-3700DC3E824B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFB4B82-9314-4563-94EB-BBE9C1A70348}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="96.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Functions & Notes.xlsx
+++ b/Functions & Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC164495-5503-49B2-A858-5D0D455869CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA1F124-6EDD-41FD-AD1A-F0EB65A26D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="101">
   <si>
     <t>Language</t>
   </si>
@@ -359,12 +359,6 @@
   </si>
   <si>
     <t> Math.max(2, 6, 9, 22, 1)</t>
-  </si>
-  <si>
-    <t>Sort From Small To Big In String</t>
-  </si>
-  <si>
-    <t>  let sorted = splited.sort((a, b) =&gt; a.length - b.length);</t>
   </si>
   <si>
     <t>const formattedName = name.charAt(0).toUpperCase() + name.slice(1).toLowerCase();</t>
@@ -1166,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,239 +1507,228 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
-        <v>60</v>
+      <c r="A32" s="33" t="s">
+        <v>62</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
-        <v>62</v>
+      <c r="A33" s="38" t="s">
+        <v>64</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="38" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
-        <v>95</v>
+      <c r="A35" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B36" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>101</v>
+      <c r="A39" s="37" t="s">
+        <v>72</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="37" t="s">
-        <v>72</v>
+      <c r="A40" s="30" t="s">
+        <v>73</v>
       </c>
       <c r="B40" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
-        <v>73</v>
+      <c r="A41" s="39" t="s">
+        <v>75</v>
       </c>
       <c r="B41" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
-        <v>75</v>
+      <c r="A42" s="37" t="s">
+        <v>77</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="37" t="s">
-        <v>77</v>
+      <c r="A43" s="40" t="s">
+        <v>79</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="40" t="s">
-        <v>79</v>
+      <c r="A44" s="43" t="s">
+        <v>81</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="43" t="s">
-        <v>81</v>
+      <c r="A45" s="41" t="s">
+        <v>83</v>
       </c>
       <c r="B45" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="41" t="s">
-        <v>83</v>
+      <c r="A46" s="42" t="s">
+        <v>85</v>
       </c>
       <c r="B46" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="42" t="s">
-        <v>85</v>
+      <c r="A47" s="44" t="s">
+        <v>87</v>
       </c>
       <c r="B47" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="44" t="s">
-        <v>87</v>
+      <c r="A48" s="30" t="s">
+        <v>89</v>
       </c>
       <c r="B48" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="30" t="s">
-        <v>89</v>
+      <c r="A49" s="45" t="s">
+        <v>91</v>
       </c>
       <c r="B49" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="45" t="s">
-        <v>91</v>
+      <c r="A50" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="B50" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>93</v>
+      <c r="A51" s="37" t="s">
+        <v>98</v>
       </c>
       <c r="B51" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" s="16" t="s">
         <v>97</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A50" r:id="rId1" xr:uid="{66473E8D-1B83-4B31-BA7E-3700DC3E824B}"/>
+    <hyperlink ref="A49" r:id="rId1" xr:uid="{66473E8D-1B83-4B31-BA7E-3700DC3E824B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Functions & Notes.xlsx
+++ b/Functions & Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Career\Tracks &amp; Courses\Web Development\Problem Solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA1F124-6EDD-41FD-AD1A-F0EB65A26D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E25ACF0-7E48-44FA-86E8-57D50C86EB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="103">
   <si>
     <t>Language</t>
   </si>
@@ -365,6 +365,12 @@
   </si>
   <si>
     <t>Make First Char Only Is Upper</t>
+  </si>
+  <si>
+    <t>let trimetd = str.trim()</t>
+  </si>
+  <si>
+    <t>Remove Spaces From String That In Start And End</t>
   </si>
 </sst>
 </file>
@@ -1160,17 +1166,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="91" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1724,6 +1730,17 @@
       </c>
       <c r="C51" s="16" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
